--- a/biology/Botanique/Ravageurs_de_la_patate_douce/Ravageurs_de_la_patate_douce.xlsx
+++ b/biology/Botanique/Ravageurs_de_la_patate_douce/Ravageurs_de_la_patate_douce.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les ravageurs de la patate douce sont principalement des insectes responsables par eux-mêmes de dommages aux cultures de patates douces, et qui peuvent aussi être les vecteurs de maladies virales et bactériennes, outre les maladies cryptogamiques que favorisent ces dégâts. Beaucoup d'entre eux sont polyphages, mais certains insectes sont spécifiques des Convolvulaceae. Ces insectes appartiennent à de nombreuses espèces ; des acariens et des mammifères sont également causes de semblables dommages.
 </t>
@@ -511,9 +523,11 @@
           <t>Insectes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>De nombreuses espèces d'insectes sont des déprédateurs de la patate douce[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>De nombreuses espèces d'insectes sont des déprédateurs de la patate douce.
 des charançons :
 Cylas formalis,
 Cylas formicarius,
@@ -554,7 +568,7 @@
 des punaises
 Spartocera batatas (punaise de la patate douce),
 Physomerus grossipes,
-vecteurs de virus[2] :
+vecteurs de virus :
 pucerons : Aphis gossypii, etc.
 aleurodes : Bemisia tabaci, etc.</t>
         </is>
@@ -584,9 +598,11 @@
           <t>Nématodes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>De nombreuses espèces de nématodes affectent la patate douce partout où elle est cultivée[1].  :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>De nombreuses espèces de nématodes affectent la patate douce partout où elle est cultivée.  :
 Meloidogyne incognita
 Meloidogyne javanica
 Meloidogyne hapla
@@ -624,9 +640,11 @@
           <t>Autres groupes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Des acariens, tels que Eriophyes  gastrotrichus, sont responsables de l'érinose[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Des acariens, tels que Eriophyes  gastrotrichus, sont responsables de l'érinose.
 Des mammifères  peuvent aussi causer des dégâts aux cultures et aux tubercules stockés, notamment des rats.
 </t>
         </is>
